--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H2">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I2">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J2">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N2">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q2">
-        <v>1.536237307676333</v>
+        <v>4.033900406133888</v>
       </c>
       <c r="R2">
-        <v>13.826135769087</v>
+        <v>36.305103655205</v>
       </c>
       <c r="S2">
-        <v>0.04379242681067575</v>
+        <v>0.06591707878975632</v>
       </c>
       <c r="T2">
-        <v>0.04379242681067575</v>
+        <v>0.06591707878975629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H3">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I3">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J3">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.56316</v>
       </c>
       <c r="O3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q3">
-        <v>0.7643138556933332</v>
+        <v>0.9960255782888886</v>
       </c>
       <c r="R3">
-        <v>6.878824701239999</v>
+        <v>8.964230204599998</v>
       </c>
       <c r="S3">
-        <v>0.0217877527245209</v>
+        <v>0.01627583477788572</v>
       </c>
       <c r="T3">
-        <v>0.0217877527245209</v>
+        <v>0.01627583477788571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H4">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I4">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J4">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N4">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q4">
-        <v>2.380076163006</v>
+        <v>3.948117164780555</v>
       </c>
       <c r="R4">
-        <v>21.420685467054</v>
+        <v>35.53305448302499</v>
       </c>
       <c r="S4">
-        <v>0.06784714226861759</v>
+        <v>0.06451531372125585</v>
       </c>
       <c r="T4">
-        <v>0.06784714226861757</v>
+        <v>0.06451531372125582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H5">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I5">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J5">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N5">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q5">
-        <v>0.5377500199826667</v>
+        <v>1.548723686406111</v>
       </c>
       <c r="R5">
-        <v>4.839750179844</v>
+        <v>13.938513177655</v>
       </c>
       <c r="S5">
-        <v>0.01532925823039049</v>
+        <v>0.02530735292947763</v>
       </c>
       <c r="T5">
-        <v>0.01532925823039049</v>
+        <v>0.02530735292947763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>13.368332</v>
       </c>
       <c r="I6">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J6">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N6">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q6">
-        <v>4.666859449906222</v>
+        <v>9.403571405252888</v>
       </c>
       <c r="R6">
-        <v>42.001735049156</v>
+        <v>84.632142647276</v>
       </c>
       <c r="S6">
-        <v>0.1330348507190321</v>
+        <v>0.1536616908743237</v>
       </c>
       <c r="T6">
-        <v>0.1330348507190321</v>
+        <v>0.1536616908743236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.368332</v>
       </c>
       <c r="I7">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J7">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.56316</v>
       </c>
       <c r="O7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q7">
         <v>2.321871316568889</v>
@@ -883,10 +883,10 @@
         <v>20.89684184912</v>
       </c>
       <c r="S7">
-        <v>0.06618793801359317</v>
+        <v>0.03794118820613906</v>
       </c>
       <c r="T7">
-        <v>0.06618793801359317</v>
+        <v>0.03794118820613906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.368332</v>
       </c>
       <c r="I8">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J8">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N8">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q8">
-        <v>7.230315835528</v>
+        <v>9.203598982975555</v>
       </c>
       <c r="R8">
-        <v>65.072842519752</v>
+        <v>82.83239084678</v>
       </c>
       <c r="S8">
-        <v>0.2061094828665238</v>
+        <v>0.1503939855301387</v>
       </c>
       <c r="T8">
-        <v>0.2061094828665238</v>
+        <v>0.1503939855301387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.368332</v>
       </c>
       <c r="I9">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J9">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N9">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q9">
-        <v>1.633604228919111</v>
+        <v>3.610285903435111</v>
       </c>
       <c r="R9">
-        <v>14.702438060272</v>
+        <v>32.492573130916</v>
       </c>
       <c r="S9">
-        <v>0.04656799654264292</v>
+        <v>0.05899488742667289</v>
       </c>
       <c r="T9">
-        <v>0.04656799654264293</v>
+        <v>0.05899488742667287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H10">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I10">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J10">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N10">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q10">
-        <v>3.822074487141667</v>
+        <v>9.714491421333223</v>
       </c>
       <c r="R10">
-        <v>34.398670384275</v>
+        <v>87.43042279199899</v>
       </c>
       <c r="S10">
-        <v>0.1089531652478049</v>
+        <v>0.15874236643243</v>
       </c>
       <c r="T10">
-        <v>0.1089531652478049</v>
+        <v>0.1587423664324299</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H11">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I11">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J11">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.56316</v>
       </c>
       <c r="O11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q11">
-        <v>1.901571113666666</v>
+        <v>2.398641751542222</v>
       </c>
       <c r="R11">
-        <v>17.114140023</v>
+        <v>21.58777576388</v>
       </c>
       <c r="S11">
-        <v>0.05420673837592258</v>
+        <v>0.03919567698904659</v>
       </c>
       <c r="T11">
-        <v>0.05420673837592258</v>
+        <v>0.03919567698904658</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H12">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I12">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J12">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N12">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q12">
-        <v>5.92149945495</v>
+        <v>9.507907103843889</v>
       </c>
       <c r="R12">
-        <v>53.29349509455</v>
+        <v>85.57116393459499</v>
       </c>
       <c r="S12">
-        <v>0.1687999830459717</v>
+        <v>0.1553666175636761</v>
       </c>
       <c r="T12">
-        <v>0.1687999830459717</v>
+        <v>0.155366617563676</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H13">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I13">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J13">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N13">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q13">
-        <v>1.337892669033333</v>
+        <v>3.729656523678778</v>
       </c>
       <c r="R13">
-        <v>12.0410340213</v>
+        <v>33.56690871310899</v>
       </c>
       <c r="S13">
-        <v>0.03813835694291445</v>
+        <v>0.06094549646199241</v>
       </c>
       <c r="T13">
-        <v>0.03813835694291445</v>
+        <v>0.06094549646199239</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H14">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I14">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J14">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N14">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O14">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P14">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q14">
-        <v>0.3020176925523333</v>
+        <v>0.2988218706573333</v>
       </c>
       <c r="R14">
-        <v>2.718159232971</v>
+        <v>2.689396835916</v>
       </c>
       <c r="S14">
-        <v>0.008609404048800647</v>
+        <v>0.004882982426207188</v>
       </c>
       <c r="T14">
-        <v>0.008609404048800647</v>
+        <v>0.004882982426207187</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H15">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I15">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J15">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.56316</v>
       </c>
       <c r="O15">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P15">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q15">
-        <v>0.1502608392133333</v>
+        <v>0.07378323621333333</v>
       </c>
       <c r="R15">
-        <v>1.35234755292</v>
+        <v>0.66404912592</v>
       </c>
       <c r="S15">
-        <v>0.004283379117848506</v>
+        <v>0.001205675625367948</v>
       </c>
       <c r="T15">
-        <v>0.004283379117848506</v>
+        <v>0.001205675625367948</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H16">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I16">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J16">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N16">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O16">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P16">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q16">
-        <v>0.467912806998</v>
+        <v>0.2924672495533334</v>
       </c>
       <c r="R16">
-        <v>4.211215262982</v>
+        <v>2.63220524598</v>
       </c>
       <c r="S16">
-        <v>0.01333845835656204</v>
+        <v>0.004779142961218296</v>
       </c>
       <c r="T16">
-        <v>0.01333845835656204</v>
+        <v>0.004779142961218295</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H17">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I17">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J17">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N17">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O17">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P17">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q17">
-        <v>0.1057193568946667</v>
+        <v>0.1147258143506667</v>
       </c>
       <c r="R17">
-        <v>0.951474212052</v>
+        <v>1.032532329156</v>
       </c>
       <c r="S17">
-        <v>0.003013666688178636</v>
+        <v>0.00187470928441183</v>
       </c>
       <c r="T17">
-        <v>0.003013666688178636</v>
+        <v>0.001874709284411829</v>
       </c>
     </row>
   </sheetData>
